--- a/PRD/Example Files/template missing.xlsx
+++ b/PRD/Example Files/template missing.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My Apps/Bid Opt App Aug 15, 2025/PRD/Example Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My Apps/Bid Opt App Aug 17, 2025/PRD/Example Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAAA3A-EA6B-4142-B8FB-61AB6F38DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E098B6-E532-F846-BC8A-FF10E0E03977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Port Values" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
